--- a/g0/0sun.xlsx
+++ b/g0/0sun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\UROP\cir_simu\paperdata2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\UROP\cir_simu\g0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D080E43-3391-4AE8-8960-FF9157A2782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1808C-9FAA-493B-9367-602E5FCFFFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="4185" windowWidth="14970" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3_Z_dark__1" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,6 @@
     <t>abs(Z)</t>
   </si>
   <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>z_imag</t>
-  </si>
-  <si>
-    <t>z_real</t>
-  </si>
-  <si>
     <t>theta</t>
   </si>
   <si>
@@ -56,6 +47,15 @@
   </si>
   <si>
     <t>applied voltage</t>
+  </si>
+  <si>
+    <t>angular frequency</t>
+  </si>
+  <si>
+    <t>Z_imag</t>
+  </si>
+  <si>
+    <t>Z_real</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -417,28 +417,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
